--- a/kadai_001/output_Claim.xlsx
+++ b/kadai_001/output_Claim.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>請求書</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>株式会社ABC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>〒101-0022 東京都千代田区神田練塀町300</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024/12/15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TEL:03-1234-5678 FAX:03-1234-5678</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>担当者名:鈴木一郎 様</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>商品名</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>単価</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>金額</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>商品A</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>商品B</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>消費税</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>38500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>